--- a/carEvalsAutomated.xlsx
+++ b/carEvalsAutomated.xlsx
@@ -2,14 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8964" windowWidth="17280" xWindow="1464" yWindow="1464"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Car Evaluations" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,9 +51,9 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -66,44 +68,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -130,32 +132,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -182,24 +166,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -211,142 +177,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -356,16 +346,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="46"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -452,37 +439,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2017 Subaru Outback 2.5i Limited</t>
+          <t>2015 Honda Accord EXL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$20,995</t>
+          <t>$12,985</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">55,521 miles </t>
+          <t xml:space="preserve">74,250 miles </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Moosic, PA </t>
+          <t xml:space="preserve">Baltimore, MD </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>AWD</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -492,12 +479,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Wagon</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>4 Cyl 2.5 L</t>
+          <t>4 Cyl 2.4 L</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -507,49 +494,49 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>25/32</t>
+          <t>26/34</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>4S4BSAKC4H3313980</t>
+          <t>1HGCR2F84FA213789</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>U17119</t>
+          <t>6000-213789</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2019-12-29 18:40:44.695752</t>
+          <t>2019-12-29 19:21:52.275477</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>https://www.carfax.com/vehicle/4S4BSAKC4H3313980</t>
+          <t>https://www.carfax.com/vehicle/1HGCR2F84FA213789</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2017 Subaru WRX Base</t>
+          <t>2017 Ford Mustang GT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$22,120</t>
+          <t>$25,260</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">30,223 miles </t>
+          <t xml:space="preserve">16,392 miles </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Charlotte, NC </t>
+          <t xml:space="preserve">Vienna, VA </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -564,7 +551,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>AWD</t>
+          <t>RWD</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -574,12 +561,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Coupe</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>4 Cyl 2.0 L</t>
+          <t>8 Cyl 5.0 L</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -589,44 +576,44 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>20/27</t>
+          <t>15/25</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>JF1VA1B69H9819077</t>
+          <t>1FA6P8CFXH5249463</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>P8363</t>
+          <t>IP2997A</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2019-12-29 18:40:45.280444</t>
+          <t>2019-12-29 19:21:53.063157</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://www.carfax.com/vehicle/JF1VA1B69H9819077</t>
+          <t>https://www.carfax.com/vehicle/1FA6P8CFXH5249463</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2017 Honda Accord LX</t>
+          <t>2014 Ford Mustang</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$15,495</t>
+          <t>$15,000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">39,000 miles </t>
+          <t xml:space="preserve">22,671 miles </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -636,17 +623,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Gray</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tan</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>RWD</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -656,12 +643,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Coupe</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>4 Cyl 2.4 L</t>
+          <t>6 Cyl 3.7 L</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -671,277 +658,49 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>26/34</t>
+          <t>19/30</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1HGCR2F37HA168435</t>
+          <t>1ZVBP8AM1E5209582</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>3464270</t>
+          <t>MU209582</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2019-12-29 18:48:24.820192</t>
+          <t>2019-12-29 19:22:32.697683</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://www.carfax.com/vehicle/1HGCR2F37HA168435</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2015 Honda Accord EXL</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>$12,985</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">74,250 miles </t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Baltimore, MD </t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Automatic</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Sedan</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>4 Cyl 2.4 L</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Gasoline</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>26/34</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>1HGCR2F84FA213789</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>6000-213789</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>2019-12-29 18:48:59.486254</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>https://www.carfax.com/vehicle/1HGCR2F84FA213789</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2017 Subaru Outback 2.5i Limited</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>$20,995</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">55,521 miles </t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Moosic, PA </t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>White</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>AWD</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Automatic</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Wagon</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>4 Cyl 2.5 L</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Gasoline</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>25/32</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>4S4BSAKC4H3313980</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>U17119</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>2019-12-29 17:32:33.043936</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>https://www.carfax.com/vehicle/4S4BSAKC4H3313980</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2017 Subaru Outback 2.5i Limited</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>$20,995</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">55,521 miles </t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Moosic, PA </t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>White</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>AWD</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Automatic</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Wagon</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>4 Cyl 2.5 L</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Gasoline</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>25/32</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>4S4BSAKC4H3313980</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>U17119</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>2019-12-29 18:26:25.511451</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>https://www.carfax.com/vehicle/4S4BSAKC4H3313980</t>
+          <t>https://www.carfax.com/vehicle/1ZVBP8AM1E5209582</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/carEvalsAutomated.xlsx
+++ b/carEvalsAutomated.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Car Evaluations" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -346,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,7 +508,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2019-12-29 19:21:52.275477</t>
+          <t>2019-12-29 19:32:08.884654</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -521,52 +520,52 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2017 Ford Mustang GT</t>
+          <t>2017 Honda Accord LX</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$25,260</t>
+          <t>$15,995</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">16,392 miles </t>
+          <t xml:space="preserve">26,832 miles </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vienna, VA </t>
+          <t xml:space="preserve">Falls Church, VA </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Unspecified</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unspecified</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>RWD</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Automatic</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Coupe</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>8 Cyl 5.0 L</t>
+          <t>4 Cyl 2.4 L</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -576,54 +575,54 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>15/25</t>
+          <t>26/34</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1FA6P8CFXH5249463</t>
+          <t>1HGCR2F35HA094805</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>IP2997A</t>
+          <t>HP4847</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2019-12-29 19:21:53.063157</t>
+          <t>2019-12-29 19:33:12.889521</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://www.carfax.com/vehicle/1FA6P8CFXH5249463</t>
+          <t>https://www.carfax.com/vehicle/1HGCR2F35HA094805</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2014 Ford Mustang</t>
+          <t>2016 Honda Accord Sport</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$15,000</t>
+          <t>$16,277</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">22,671 miles </t>
+          <t xml:space="preserve">28,474 miles </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Westminster, MD </t>
+          <t xml:space="preserve">Stafford, VA </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Gray</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -633,7 +632,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>RWD</t>
+          <t>FWD</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -643,12 +642,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Coupe</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>6 Cyl 3.7 L</t>
+          <t>4 Cyl 2.4 L</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -658,49 +657,113 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>19/30</t>
+          <t>26/34</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1ZVBP8AM1E5209582</t>
+          <t>1HGCR2F52GA125671</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>MU209582</t>
+          <t>125671</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2019-12-29 19:22:32.697683</t>
+          <t>2019-12-29 19:33:14.067253</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://www.carfax.com/vehicle/1ZVBP8AM1E5209582</t>
+          <t>https://www.carfax.com/vehicle/1HGCR2F52GA125671</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2015 Honda Accord EXL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>$15,371</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">68,777 miles </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Germantown, MD </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Sedan</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>6 Cyl 3.5 L</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Gasoline</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>21/31</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1HGCR3F85FA011615</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>H191579B</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2019-12-29 19:34:34.986326</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>https://www.carfax.com/vehicle/1HGCR3F85FA011615</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
 </file>